--- a/Tesis/Picking/Resultados.xlsx
+++ b/Tesis/Picking/Resultados.xlsx
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -623,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -665,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -791,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -805,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -854,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -882,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -896,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -924,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -938,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
